--- a/nfib_prices_df.xlsx
+++ b/nfib_prices_df.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.zhang\Documents\Python Projects\VAR Nowcasts-Copy1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BD4EF2-464B-4345-B2AD-66C2CC55407D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAE6BC7-FA01-4E1E-BDD9-68F945E61905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -363,13 +363,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B361"/>
+  <dimension ref="A1:B367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="A361" sqref="A361"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="B367" sqref="B367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -3259,6 +3262,54 @@
         <v>30</v>
       </c>
     </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362" s="1">
+        <v>45382</v>
+      </c>
+      <c r="B362">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B363">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364" s="1">
+        <v>45443</v>
+      </c>
+      <c r="B364">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365" s="1">
+        <v>45473</v>
+      </c>
+      <c r="B365">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B366">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367" s="1">
+        <v>45535</v>
+      </c>
+      <c r="B367">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/nfib_prices_df.xlsx
+++ b/nfib_prices_df.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex.zhang\Documents\Python Projects\VAR Nowcasts-Copy1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAE6BC7-FA01-4E1E-BDD9-68F945E61905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8CEBFF-D346-4149-9114-79EB12FC5AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,15 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B367"/>
+  <dimension ref="A1:B370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
-      <selection activeCell="B367" sqref="B367"/>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="B370" sqref="B370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -3310,6 +3310,30 @@
         <v>25</v>
       </c>
     </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368" s="1">
+        <v>45565</v>
+      </c>
+      <c r="B368">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" s="1">
+        <v>45596</v>
+      </c>
+      <c r="B369">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" s="1">
+        <v>45626</v>
+      </c>
+      <c r="B370">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
